--- a/results/I3_N5_M3_T15_C150_DepCentral_s4_P1_res.xlsx
+++ b/results/I3_N5_M3_T15_C150_DepCentral_s4_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>855.4707425504072</v>
+        <v>506.7307425503977</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.350287346831242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.350287346831242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>526.7000000000095</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>306.04</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -824,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -945,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.175153539594582</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -999,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,76 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1198,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>103.9450000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1209,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.87500000000006</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.50500000000007</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1231,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>97.73000000000009</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1242,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>89.70500000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1253,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>124.5800000000014</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -1264,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>122.5850000000014</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -1275,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>138.7100000000014</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -1286,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>133.4800000000014</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
@@ -1297,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>121.3950000000014</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
@@ -1308,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>48.07000000000073</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1319,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.66000000000073</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1330,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>49.43500000000073</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1341,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>46.91500000000073</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -1352,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>42.86500000000073</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -1363,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>184.05</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23">
@@ -1374,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>190.0900000000015</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24">
@@ -1385,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>197.7250000000014</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25">
@@ -1396,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>200.3650000000015</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26">
@@ -1407,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>189.8850000000014</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27">
@@ -1418,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>163.8399999999998</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1429,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>163.6949999999998</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1440,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>161.6799999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -1451,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>160.4149999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -1462,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>151.6049999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -1473,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>184.05</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33">
@@ -1484,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>190.0900000000015</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34">
@@ -1495,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>197.7250000000014</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35">
@@ -1506,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>200.3650000000015</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36">
@@ -1517,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>189.8850000000014</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37">
@@ -1583,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>163.8399999999998</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
@@ -1594,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>163.6949999999998</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44">
@@ -1605,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>161.6799999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45">
@@ -1616,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>160.4149999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46">
@@ -1627,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>151.6049999999998</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>34.05</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -1685,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>40.09000000000148</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1696,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>47.72500000000144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1707,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>50.36500000000146</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -1718,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>39.88500000000144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1784,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>13.83999999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1795,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>13.69499999999976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1806,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>11.67999999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1817,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>10.41499999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1828,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>1.60499999999978</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1886,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1897,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1908,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1919,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1930,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1952,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1963,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1974,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1985,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.925000000000001</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1996,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -2007,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2018,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.945</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2029,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>13.115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2040,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2051,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2062,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2073,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2095,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2106,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2117,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2139,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2153,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2205,7 +2080,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2216,75 +2091,9 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
